--- a/CE09OSSM/Omaha_Cal_Info_CE09OSSM_00002.xlsx
+++ b/CE09OSSM/Omaha_Cal_Info_CE09OSSM_00002.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collier-air/Desktop/CI-Injgestion&amp;Calibration folder/Russ-Progress/Working-CE09OSSM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CE09OSSM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="1880" windowWidth="31020" windowHeight="18160" tabRatio="766"/>
+    <workbookView xWindow="29820" yWindow="1875" windowWidth="31020" windowHeight="18165" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="222">
   <si>
     <t>Ref Des</t>
   </si>
@@ -688,16 +688,31 @@
   <si>
     <t>NOT INSTALLED</t>
   </si>
+  <si>
+    <t>CE09OSSM-SBD11-02-HYDGN0000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-00001</t>
+  </si>
+  <si>
+    <t>CE09OSSM-SBD11-HYDGN</t>
+  </si>
+  <si>
+    <t>CE09OSSM-SBD12-03-HYDGN0000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-SBD12-HYDGN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1099,13 +1114,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1130,7 +1145,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1222,7 +1237,7 @@
     <xf numFmtId="14" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1231,7 +1246,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1240,7 +1255,7 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1292,7 +1307,7 @@
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="15" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1466,6 +1481,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1775,32 +1793,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="17"/>
+    <col min="3" max="3" width="15.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1874,12 +1892,12 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1888,29 +1906,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K203"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:K207"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1933,13 +1951,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
@@ -1962,7 +1980,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
@@ -1983,7 +2001,7 @@
       </c>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -2006,7 +2024,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
@@ -2052,7 +2070,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
@@ -2098,7 +2116,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -2121,7 +2139,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -2144,117 +2162,88 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>157</v>
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="D13" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="9">
         <v>2</v>
       </c>
-      <c r="D17" s="23">
-        <v>12721</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="23">
-        <v>46.85313166666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="23">
-        <v>12721</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="23">
-        <v>-124.9539</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="23">
-        <v>46.85313166666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>157</v>
@@ -2262,54 +2251,49 @@
       <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="23">
+        <v>12721</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="23">
+        <v>46.85313166666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="23">
+        <v>12721</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="23">
+        <v>-124.9539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>160</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="23">
-        <v>-124.9539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2</v>
-      </c>
-      <c r="D23" s="23">
-        <v>22717</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="23">
-        <v>7000</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="9">
-        <v>2</v>
-      </c>
-      <c r="D24" s="23">
-        <v>22717</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>5</v>
@@ -2318,18 +2302,18 @@
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="1">
         <v>2</v>
       </c>
-      <c r="D25" s="23">
-        <v>22717</v>
+      <c r="D25" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>6</v>
@@ -2338,27 +2322,10 @@
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="9">
-        <v>2</v>
-      </c>
-      <c r="D26" s="23">
-        <v>22717</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="23">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>140</v>
       </c>
@@ -2372,13 +2339,16 @@
         <v>22717</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="23">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>140</v>
       </c>
@@ -2392,13 +2362,13 @@
         <v>22717</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F28" s="23">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>46.85313166666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>140</v>
       </c>
@@ -2412,98 +2382,98 @@
         <v>22717</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F29" s="23">
+        <v>-124.9539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2</v>
+      </c>
+      <c r="D30" s="23">
+        <v>22717</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="23">
         <v>0.45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C31" s="9">
         <v>2</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>161</v>
+      <c r="D31" s="23">
+        <v>22717</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F31" s="23">
-        <v>46.85313166666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="8" t="s">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="9">
         <v>2</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>161</v>
+      <c r="D32" s="23">
+        <v>22717</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F32" s="23">
-        <v>-124.9539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="8" t="s">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="9">
         <v>2</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>161</v>
+      <c r="D33" s="23">
+        <v>22717</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="F33" s="23">
-        <v>1.2845840000000001E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="9">
-        <v>2</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="23">
-        <v>2.6594999999999999E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C35" s="9">
@@ -2513,13 +2483,13 @@
         <v>161</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="31">
-        <v>-1.6834599999999999E-7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="23">
+        <v>46.85313166666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>121</v>
       </c>
@@ -2533,13 +2503,13 @@
         <v>161</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="31">
-        <v>1.41344E-7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F36" s="23">
+        <v>-124.9539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>121</v>
       </c>
@@ -2553,13 +2523,13 @@
         <v>161</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F37" s="23">
-        <v>-58.855928400000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.2845840000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>121</v>
       </c>
@@ -2573,13 +2543,13 @@
         <v>161</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F38" s="23">
-        <v>54.258059099999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2.6594999999999999E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>121</v>
       </c>
@@ -2593,13 +2563,13 @@
         <v>161</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="23">
-        <v>-0.55807975700000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="F39" s="31">
+        <v>-1.6834599999999999E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>121</v>
       </c>
@@ -2613,13 +2583,13 @@
         <v>161</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="23">
-        <v>524689.77800000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F40" s="31">
+        <v>1.41344E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>121</v>
       </c>
@@ -2633,13 +2603,13 @@
         <v>161</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F41" s="23">
-        <v>-20.77497</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-58.855928400000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>121</v>
       </c>
@@ -2653,13 +2623,13 @@
         <v>161</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F42" s="23">
-        <v>0.26732213900000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54.258059099999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>121</v>
       </c>
@@ -2673,13 +2643,13 @@
         <v>161</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F43" s="23">
-        <v>25.026250000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-0.55807975700000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>121</v>
       </c>
@@ -2693,13 +2663,13 @@
         <v>161</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F44" s="23">
-        <v>-3.5E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>524689.77800000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>121</v>
       </c>
@@ -2713,13 +2683,13 @@
         <v>161</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F45" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-20.77497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>121</v>
       </c>
@@ -2733,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F46" s="23">
-        <v>-0.164016417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.26732213900000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>121</v>
       </c>
@@ -2753,13 +2723,13 @@
         <v>161</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F47" s="23">
-        <v>4.8962500000000004E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>25.026250000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>121</v>
       </c>
@@ -2773,13 +2743,13 @@
         <v>161</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="31">
-        <v>-8.0475599999999993E-12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F48" s="23">
+        <v>-3.5E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>121</v>
       </c>
@@ -2793,13 +2763,13 @@
         <v>161</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F49" s="23">
-        <v>-0.97157990000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>121</v>
       </c>
@@ -2813,13 +2783,13 @@
         <v>161</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F50" s="23">
-        <v>0.13846729999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-0.164016417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>121</v>
       </c>
@@ -2833,13 +2803,13 @@
         <v>161</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F51" s="23">
-        <v>-2.4174299999999999E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4.8962500000000004E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>121</v>
       </c>
@@ -2853,13 +2823,13 @@
         <v>161</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F52" s="31">
-        <v>3.6677600000000003E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-8.0475599999999993E-12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>121</v>
       </c>
@@ -2873,13 +2843,13 @@
         <v>161</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="31">
-        <v>-9.5700000000000003E-8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F53" s="23">
+        <v>-0.97157990000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>121</v>
       </c>
@@ -2893,103 +2863,116 @@
         <v>161</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F54" s="23">
-        <v>3.2499999999999998E-6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="1" t="s">
+        <v>0.13846729999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="9">
+        <v>2</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="23">
+        <v>-2.4174299999999999E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C56" s="9">
         <v>2</v>
       </c>
-      <c r="D56" s="23">
-        <v>219</v>
+      <c r="D56" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="23">
-        <v>46.85313166666667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="31">
+        <v>3.6677600000000003E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C57" s="9">
         <v>2</v>
       </c>
-      <c r="D57" s="23">
-        <v>219</v>
+      <c r="D57" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="23">
-        <v>-124.9539</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="31">
+        <v>-9.5700000000000003E-8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C58" s="9">
         <v>2</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="23">
+        <v>3.2499999999999998E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="9">
+        <v>2</v>
+      </c>
+      <c r="D60" s="23">
         <v>219</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="E60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="23">
+        <v>46.85313166666667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" s="9">
-        <v>2</v>
-      </c>
-      <c r="D59" s="23">
-        <v>219</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C60" s="9"/>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>157</v>
@@ -2998,38 +2981,38 @@
         <v>2</v>
       </c>
       <c r="D61" s="23">
-        <v>1291</v>
+        <v>219</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" s="23">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="1" t="s">
+        <v>-124.9539</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C62" s="9">
         <v>2</v>
       </c>
       <c r="D62" s="23">
-        <v>1291</v>
+        <v>219</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="23">
-        <v>1.8390000000000001E-6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>157</v>
@@ -3038,36 +3021,23 @@
         <v>2</v>
       </c>
       <c r="D63" s="23">
-        <v>1291</v>
+        <v>219</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="23">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="9">
-        <v>2</v>
-      </c>
-      <c r="D64" s="23">
-        <v>1291</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="23">
-        <v>1.21E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="9"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
@@ -3081,13 +3051,13 @@
         <v>1291</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F65" s="23">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>120</v>
       </c>
@@ -3101,13 +3071,13 @@
         <v>1291</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F66" s="23">
-        <v>9.0700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.8390000000000001E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>120</v>
       </c>
@@ -3121,16 +3091,13 @@
         <v>1291</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="F67" s="23">
-        <v>124</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>120</v>
       </c>
@@ -3144,16 +3111,13 @@
         <v>1291</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="F68" s="23">
-        <v>700</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>120</v>
       </c>
@@ -3167,16 +3131,13 @@
         <v>1291</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F69" s="23">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
@@ -3190,22 +3151,38 @@
         <v>1291</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="F70" s="23">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C71" s="9"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="9">
+        <v>2</v>
+      </c>
+      <c r="D71" s="23">
+        <v>1291</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="23">
+        <v>124</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>157</v>
@@ -3214,21 +3191,21 @@
         <v>2</v>
       </c>
       <c r="D72" s="23">
-        <v>254</v>
+        <v>1291</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="F72" s="23">
-        <v>217</v>
+        <v>700</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>157</v>
@@ -3237,21 +3214,21 @@
         <v>2</v>
       </c>
       <c r="D73" s="23">
-        <v>254</v>
+        <v>1291</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F73" s="23">
-        <v>240</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>157</v>
@@ -3260,36 +3237,23 @@
         <v>2</v>
       </c>
       <c r="D74" s="23">
-        <v>254</v>
+        <v>1291</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="F74" s="23">
-        <v>19.98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="9">
-        <v>2</v>
-      </c>
-      <c r="D75" s="23">
-        <v>254</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F75" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="9"/>
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>124</v>
       </c>
@@ -3303,13 +3267,16 @@
         <v>254</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F76" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F76" s="23">
+        <v>217</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>124</v>
       </c>
@@ -3323,13 +3290,16 @@
         <v>254</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="F77" s="23">
+        <v>240</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>124</v>
       </c>
@@ -3342,22 +3312,36 @@
       <c r="D78" s="23">
         <v>254</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E78" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="23">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="9">
+        <v>2</v>
+      </c>
+      <c r="D79" s="23">
+        <v>254</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>157</v>
@@ -3366,18 +3350,18 @@
         <v>2</v>
       </c>
       <c r="D80" s="23">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>157</v>
@@ -3386,18 +3370,18 @@
         <v>2</v>
       </c>
       <c r="D81" s="23">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>157</v>
@@ -3406,36 +3390,22 @@
         <v>2</v>
       </c>
       <c r="D82" s="23">
-        <v>258</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F82" s="23">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="9">
-        <v>2</v>
-      </c>
-      <c r="D83" s="23">
-        <v>258</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>118</v>
       </c>
@@ -3449,13 +3419,13 @@
         <v>258</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>118</v>
       </c>
@@ -3469,13 +3439,13 @@
         <v>258</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>118</v>
       </c>
@@ -3489,17 +3459,17 @@
         <v>258</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F86" s="23">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C87" s="9">
@@ -3508,39 +3478,56 @@
       <c r="D87" s="23">
         <v>258</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F87" s="28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E87" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="9">
+        <v>2</v>
+      </c>
+      <c r="D88" s="23">
+        <v>258</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="9">
         <v>2</v>
       </c>
-      <c r="D89" s="23" t="s">
-        <v>162</v>
+      <c r="D89" s="23">
+        <v>258</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="23">
-        <v>17533</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>157</v>
@@ -3548,80 +3535,60 @@
       <c r="C90" s="9">
         <v>2</v>
       </c>
-      <c r="D90" s="23" t="s">
-        <v>162</v>
+      <c r="D90" s="23">
+        <v>258</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="23">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C91" s="9">
         <v>2</v>
       </c>
-      <c r="D91" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="23">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="9">
-        <v>2</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" s="23">
-        <v>38502</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D91" s="23">
+        <v>258</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="1">
         <v>2</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>162</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="22">
-        <v>0</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="F93" s="23">
+        <v>17533</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>116</v>
       </c>
@@ -3635,44 +3602,55 @@
         <v>162</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="22">
-        <v>1</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C95" s="9">
         <v>2</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="23" t="s">
         <v>162</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F95" s="9">
-        <v>35</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E96" s="9"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F95" s="23">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="9">
+        <v>2</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="23">
+        <v>38502</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>157</v>
@@ -3680,19 +3658,22 @@
       <c r="C97" s="9">
         <v>2</v>
       </c>
-      <c r="D97" s="23">
-        <v>254</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D97" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>157</v>
@@ -3700,167 +3681,153 @@
       <c r="C98" s="9">
         <v>2</v>
       </c>
-      <c r="D98" s="23">
-        <v>254</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="D98" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="22">
+        <v>1</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C99" s="9">
         <v>2</v>
       </c>
-      <c r="D99" s="23">
-        <v>254</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D100" s="23"/>
-      <c r="F100" s="30"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D99" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="9">
+        <v>35</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="9">
         <v>2</v>
       </c>
       <c r="D101" s="23">
-        <v>11380</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="23">
-        <v>46.85313166666667</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="9">
         <v>2</v>
       </c>
       <c r="D102" s="23">
-        <v>11380</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" s="23">
-        <v>-124.9539</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E103" s="9"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B104" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C103" s="9">
         <v>2</v>
       </c>
-      <c r="D104" s="23">
-        <v>22649</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104" s="23">
-        <v>542000</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D103" s="23">
+        <v>254</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="23"/>
+      <c r="F104" s="30"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="1">
         <v>2</v>
       </c>
       <c r="D105" s="23">
-        <v>22649</v>
-      </c>
-      <c r="E105" s="1" t="s">
+        <v>11380</v>
+      </c>
+      <c r="E105" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F105" s="23">
         <v>46.85313166666667</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="1">
         <v>2</v>
       </c>
       <c r="D106" s="23">
-        <v>22649</v>
-      </c>
-      <c r="E106" s="1" t="s">
+        <v>11380</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F106" s="23">
         <v>-124.9539</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="9">
-        <v>2</v>
-      </c>
-      <c r="D107" s="23">
-        <v>22649</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F107" s="23">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>141</v>
       </c>
@@ -3874,13 +3841,16 @@
         <v>22649</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F108" s="23">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+        <v>542000</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
@@ -3894,13 +3864,13 @@
         <v>22649</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F109" s="23">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46.85313166666667</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>141</v>
       </c>
@@ -3914,40 +3884,75 @@
         <v>22649</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F110" s="23">
+        <v>-124.9539</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="9">
+        <v>2</v>
+      </c>
+      <c r="D111" s="23">
+        <v>22649</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" s="23">
         <v>0.45</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-    </row>
-    <row r="112" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G112" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I112" s="9" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J112" s="9">
+      <c r="C112" s="9">
         <v>2</v>
       </c>
-      <c r="K112" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D112" s="23">
+        <v>22649</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" s="23">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="9">
+        <v>2</v>
+      </c>
+      <c r="D113" s="23">
+        <v>22649</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="23">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>157</v>
@@ -3955,81 +3960,46 @@
       <c r="C114" s="9">
         <v>2</v>
       </c>
-      <c r="D114" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>5</v>
+      <c r="D114" s="23">
+        <v>22649</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F114" s="23">
-        <v>46.85313166666667</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+    </row>
+    <row r="116" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J116" s="9">
+        <v>2</v>
+      </c>
+      <c r="K116" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="9">
-        <v>2</v>
-      </c>
-      <c r="D115" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" s="23">
-        <v>-124.9539</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="9">
-        <v>2</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F116" s="23">
-        <v>1.2499552599999999E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="9">
-        <v>2</v>
-      </c>
-      <c r="D117" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F117" s="23">
-        <v>2.7464309900000002E-4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C118" s="9">
@@ -4039,17 +4009,17 @@
         <v>166</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="F118" s="23">
-        <v>-1.11866702E-6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="9" t="s">
+        <v>46.85313166666667</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C119" s="9">
@@ -4059,13 +4029,13 @@
         <v>166</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="F119" s="23">
-        <v>1.8011126299999999E-7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-124.9539</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>139</v>
       </c>
@@ -4079,13 +4049,13 @@
         <v>166</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F120" s="23">
-        <v>-73.593434700000003</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.2499552599999999E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>139</v>
       </c>
@@ -4099,13 +4069,13 @@
         <v>166</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F121" s="23">
-        <v>53.418779200000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2.7464309900000002E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>139</v>
       </c>
@@ -4119,13 +4089,13 @@
         <v>166</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F122" s="23">
-        <v>-0.72569349599999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-1.11866702E-6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>139</v>
       </c>
@@ -4139,13 +4109,13 @@
         <v>166</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F123" s="23">
-        <v>524344.28899999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.8011126299999999E-7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>139</v>
       </c>
@@ -4159,13 +4129,13 @@
         <v>166</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F124" s="23">
-        <v>329.99508100000003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-73.593434700000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>139</v>
       </c>
@@ -4179,13 +4149,13 @@
         <v>166</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F125" s="23">
-        <v>-5.74400814</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>53.418779200000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>139</v>
       </c>
@@ -4199,13 +4169,13 @@
         <v>166</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F126" s="23">
-        <v>25.032</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-0.72569349599999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>139</v>
       </c>
@@ -4219,16 +4189,13 @@
         <v>166</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F127" s="23">
-        <v>0</v>
-      </c>
-      <c r="G127" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>524344.28899999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>139</v>
       </c>
@@ -4242,13 +4209,13 @@
         <v>166</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F128" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>329.99508100000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>139</v>
       </c>
@@ -4262,13 +4229,13 @@
         <v>166</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F129" s="23">
-        <v>12.015601699999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-5.74400814</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>139</v>
       </c>
@@ -4282,13 +4249,13 @@
         <v>166</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F130" s="23">
-        <v>2.6457985200000001E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>25.032</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>139</v>
       </c>
@@ -4302,13 +4269,16 @@
         <v>166</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F131" s="23">
-        <v>2.6006146200000001E-11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>139</v>
       </c>
@@ -4322,13 +4292,13 @@
         <v>166</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F132" s="23">
-        <v>-0.99735000100000004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>139</v>
       </c>
@@ -4342,13 +4312,13 @@
         <v>166</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F133" s="23">
-        <v>0.14975640200000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12.015601699999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>139</v>
       </c>
@@ -4362,13 +4332,13 @@
         <v>166</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F134" s="23">
-        <v>-2.3753292199999999E-4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2.6457985200000001E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>139</v>
       </c>
@@ -4382,13 +4352,13 @@
         <v>166</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F135" s="23">
-        <v>3.9405609399999999E-5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2.6006146200000001E-11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>139</v>
       </c>
@@ -4402,13 +4372,13 @@
         <v>166</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F136" s="23">
-        <v>-9.5700000000000003E-8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-0.99735000100000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>139</v>
       </c>
@@ -4422,106 +4392,119 @@
         <v>166</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F137" s="23">
-        <v>3.2499999999999998E-6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C138" s="9"/>
-      <c r="E138" s="9"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B139" s="1" t="s">
+        <v>0.14975640200000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="9">
+        <v>2</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F138" s="23">
+        <v>-2.3753292199999999E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C139" s="9">
         <v>2</v>
       </c>
-      <c r="D139" s="23">
-        <v>478</v>
+      <c r="D139" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="F139" s="23">
-        <v>46.85313166666667</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B140" s="1" t="s">
+        <v>3.9405609399999999E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C140" s="9">
         <v>2</v>
       </c>
-      <c r="D140" s="23">
-        <v>478</v>
+      <c r="D140" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="F140" s="23">
-        <v>-124.9539</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B141" s="1" t="s">
+        <v>-9.5700000000000003E-8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C141" s="9">
         <v>2</v>
       </c>
-      <c r="D141" s="23">
+      <c r="D141" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F141" s="23">
+        <v>3.2499999999999998E-6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C142" s="9"/>
+      <c r="E142" s="9"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" s="9">
+        <v>2</v>
+      </c>
+      <c r="D143" s="23">
         <v>478</v>
       </c>
-      <c r="E141" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="9" t="s">
+      <c r="E143" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" s="23">
+        <v>46.85313166666667</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="9">
-        <v>2</v>
-      </c>
-      <c r="D142" s="23">
-        <v>478</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F142" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C143" s="9"/>
-      <c r="E143" s="9"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>157</v>
@@ -4530,18 +4513,18 @@
         <v>2</v>
       </c>
       <c r="D144" s="23">
-        <v>249</v>
+        <v>478</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F144" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F144" s="23">
+        <v>-124.9539</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>157</v>
@@ -4550,56 +4533,43 @@
         <v>2</v>
       </c>
       <c r="D145" s="23">
-        <v>249</v>
+        <v>478</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F145" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C146" s="9">
         <v>2</v>
       </c>
       <c r="D146" s="23">
-        <v>249</v>
+        <v>478</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F146" s="30">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="9">
-        <v>2</v>
-      </c>
-      <c r="D147" s="23">
-        <v>249</v>
-      </c>
-      <c r="E147" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F147" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C147" s="9"/>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>119</v>
       </c>
@@ -4613,13 +4583,13 @@
         <v>249</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F148" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>119</v>
       </c>
@@ -4633,13 +4603,13 @@
         <v>249</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F149" s="30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>119</v>
       </c>
@@ -4653,13 +4623,13 @@
         <v>249</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F150" s="30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F150" s="30">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>119</v>
       </c>
@@ -4673,19 +4643,35 @@
         <v>249</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F151" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C152" s="9"/>
-      <c r="E152" s="9"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="9">
+        <v>2</v>
+      </c>
+      <c r="D152" s="23">
+        <v>249</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F152" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>157</v>
@@ -4693,19 +4679,19 @@
       <c r="C153" s="9">
         <v>2</v>
       </c>
-      <c r="D153" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F153" s="23">
-        <v>4.9700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D153" s="23">
+        <v>249</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F153" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>157</v>
@@ -4713,19 +4699,19 @@
       <c r="C154" s="9">
         <v>2</v>
       </c>
-      <c r="D154" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F154" s="23">
-        <v>0.59109999999999996</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D154" s="23">
+        <v>249</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F154" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>157</v>
@@ -4733,37 +4719,21 @@
       <c r="C155" s="9">
         <v>2</v>
       </c>
-      <c r="D155" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F155" s="23">
-        <v>-1.5395000000000001</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C156" s="9">
-        <v>2</v>
-      </c>
-      <c r="D156" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F156" s="23">
-        <v>14.9986</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D155" s="23">
+        <v>249</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F155" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C156" s="9"/>
+      <c r="E156" s="9"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>127</v>
       </c>
@@ -4777,16 +4747,13 @@
         <v>163</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F157" s="23">
-        <v>19706</v>
-      </c>
-      <c r="G157" s="33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>127</v>
       </c>
@@ -4800,16 +4767,13 @@
         <v>163</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F158" s="23">
-        <v>34</v>
-      </c>
-      <c r="G158" s="34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.59109999999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>127</v>
       </c>
@@ -4823,14 +4787,13 @@
         <v>163</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F159" s="23">
-        <v>3073</v>
-      </c>
-      <c r="G159" s="34"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-1.5395000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>127</v>
       </c>
@@ -4844,19 +4807,38 @@
         <v>163</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F160" s="23">
-        <v>44327</v>
-      </c>
-      <c r="G160" s="35"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14.9986</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="9">
+        <v>2</v>
+      </c>
+      <c r="D161" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="23">
+        <v>19706</v>
+      </c>
+      <c r="G161" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>157</v>
@@ -4865,18 +4847,21 @@
         <v>2</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>14</v>
+        <v>163</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="F162" s="23">
-        <v>17533</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G162" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>157</v>
@@ -4885,18 +4870,19 @@
         <v>2</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>16</v>
+        <v>163</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F163" s="23">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3073</v>
+      </c>
+      <c r="G163" s="34"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>157</v>
@@ -4905,36 +4891,20 @@
         <v>2</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>15</v>
+        <v>163</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F164" s="23">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C165" s="9">
-        <v>2</v>
-      </c>
-      <c r="D165" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F165" s="23">
-        <v>38502</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44327</v>
+      </c>
+      <c r="G164" s="35"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>117</v>
       </c>
@@ -4948,16 +4918,13 @@
         <v>164</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" s="22">
-        <v>0</v>
-      </c>
-      <c r="G166" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="F166" s="23">
+        <v>17533</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>117</v>
       </c>
@@ -4971,44 +4938,55 @@
         <v>164</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" s="22">
-        <v>1</v>
-      </c>
-      <c r="G167" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167" s="23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C168" s="9">
         <v>2</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="23" t="s">
         <v>164</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F168" s="9">
-        <v>35</v>
-      </c>
-      <c r="G168" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E169" s="9"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F168" s="23">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" s="9">
+        <v>2</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" s="23">
+        <v>38502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>157</v>
@@ -5017,21 +4995,21 @@
         <v>2</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F170" s="23">
-        <v>-4631.5259999999998</v>
+        <v>164</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="22">
+        <v>0</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>157</v>
@@ -5040,59 +5018,45 @@
         <v>2</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F171" s="23">
-        <v>35.767060000000001</v>
+        <v>164</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="22">
+        <v>1</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B172" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C172" s="9">
         <v>2</v>
       </c>
-      <c r="D172" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F172" s="23">
-        <v>13013.89</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C173" s="9">
-        <v>2</v>
-      </c>
-      <c r="D173" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F173" s="23">
-        <v>7.0046999999999998E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D172" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F172" s="9">
+        <v>35</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E173" s="9"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>142</v>
       </c>
@@ -5106,13 +5070,16 @@
         <v>165</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F174" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-4631.5259999999998</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>142</v>
       </c>
@@ -5126,16 +5093,16 @@
         <v>165</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F175" s="23">
-        <v>0</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35.767060000000001</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>142</v>
       </c>
@@ -5149,16 +5116,13 @@
         <v>165</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F176" s="23">
-        <v>-0.38400000000000001</v>
-      </c>
-      <c r="G176" s="36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13013.89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>142</v>
       </c>
@@ -5172,16 +5136,13 @@
         <v>165</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F177" s="23">
-        <v>1</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.0046999999999998E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>142</v>
       </c>
@@ -5195,13 +5156,13 @@
         <v>165</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F178" s="23">
-        <v>30.151720000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>142</v>
       </c>
@@ -5215,13 +5176,16 @@
         <v>165</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F179" s="23">
-        <v>0.63704700000000003</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>142</v>
       </c>
@@ -5235,13 +5199,16 @@
         <v>165</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F180" s="23">
-        <v>43.948039999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="G180" s="36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>142</v>
       </c>
@@ -5255,13 +5222,16 @@
         <v>165</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F181" s="23">
-        <v>107.149</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>142</v>
       </c>
@@ -5275,13 +5245,13 @@
         <v>165</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F182" s="23">
-        <v>5.8312720000000002</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30.151720000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>142</v>
       </c>
@@ -5295,13 +5265,13 @@
         <v>165</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F183" s="23">
-        <v>-3939.6460000000002</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.63704700000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>142</v>
       </c>
@@ -5315,13 +5285,13 @@
         <v>165</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F184" s="23">
-        <v>-10461.549999999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+        <v>43.948039999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>142</v>
       </c>
@@ -5335,17 +5305,17 @@
         <v>165</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F185" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="9" t="s">
+        <v>107.149</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C186" s="9">
@@ -5354,18 +5324,18 @@
       <c r="D186" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="E186" s="9" t="s">
-        <v>98</v>
+      <c r="E186" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F186" s="23">
-        <v>838.8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="9" t="s">
+        <v>5.8312720000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C187" s="9">
@@ -5374,39 +5344,56 @@
       <c r="D187" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="E187" s="9" t="s">
-        <v>99</v>
+      <c r="E187" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F187" s="23">
-        <v>12582.9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C188" s="9"/>
-    </row>
-    <row r="189" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B189" s="9" t="s">
+        <v>-3939.6460000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C188" s="9">
+        <v>2</v>
+      </c>
+      <c r="D188" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F188" s="23">
+        <v>-10461.549999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C189" s="9">
         <v>2</v>
       </c>
-      <c r="D189" s="23">
-        <v>12607</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>5</v>
+      <c r="D189" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F189" s="23">
-        <v>46.85313166666667</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>157</v>
@@ -5414,98 +5401,105 @@
       <c r="C190" s="9">
         <v>2</v>
       </c>
-      <c r="D190" s="23">
+      <c r="D190" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F190" s="23">
+        <v>838.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C191" s="9">
+        <v>2</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F191" s="23">
+        <v>12582.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C192" s="9"/>
+    </row>
+    <row r="193" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C193" s="9">
+        <v>2</v>
+      </c>
+      <c r="D193" s="23">
         <v>12607</v>
       </c>
-      <c r="E190" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F190" s="23">
-        <v>-124.9539</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B191" s="25"/>
-      <c r="C191" s="9"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C192" s="9">
-        <v>2</v>
-      </c>
-      <c r="D192" s="23">
-        <v>55096</v>
-      </c>
-      <c r="F192" s="23"/>
-      <c r="G192" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B194" s="1" t="s">
+      <c r="E193" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F193" s="23">
+        <v>46.85313166666667</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B194" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C194" s="9">
         <v>2</v>
       </c>
-      <c r="D194" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="G194" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C195" s="9">
-        <v>2</v>
-      </c>
-      <c r="D195" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G195" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B196" s="1" t="s">
+      <c r="D194" s="23">
+        <v>12607</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" s="23">
+        <v>-124.9539</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B195" s="25"/>
+      <c r="C195" s="9"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B196" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C196" s="9">
         <v>2</v>
       </c>
-      <c r="D196" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="G196" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C197" s="9"/>
-      <c r="D197" s="20"/>
-      <c r="G197" s="20"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D196" s="23">
+        <v>55096</v>
+      </c>
+      <c r="F196" s="23"/>
+      <c r="G196" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>157</v>
@@ -5514,15 +5508,15 @@
         <v>2</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G198" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>157</v>
@@ -5531,15 +5525,15 @@
         <v>2</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G199" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>157</v>
@@ -5548,32 +5542,20 @@
         <v>2</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G200" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C201" s="9">
-        <v>2</v>
-      </c>
-      <c r="D201" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G201" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C201" s="9"/>
+      <c r="D201" s="20"/>
+      <c r="G201" s="20"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>157</v>
@@ -5582,15 +5564,15 @@
         <v>2</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G202" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>157</v>
@@ -5599,9 +5581,77 @@
         <v>2</v>
       </c>
       <c r="D203" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G203" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C204" s="9">
+        <v>2</v>
+      </c>
+      <c r="D204" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G204" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C205" s="9">
+        <v>2</v>
+      </c>
+      <c r="D205" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G205" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C206" s="9">
+        <v>2</v>
+      </c>
+      <c r="D206" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G206" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C207" s="9">
+        <v>2</v>
+      </c>
+      <c r="D207" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="G203" s="20" t="s">
+      <c r="G207" s="20" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5619,12 +5669,12 @@
       <selection sqref="A1:AI85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="29"/>
+    <col min="1" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="29">
         <v>-4.2207000000000001E-2</v>
       </c>
@@ -5731,7 +5781,7 @@
         <v>1.3034E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>-4.0453000000000003E-2</v>
       </c>
@@ -5838,7 +5888,7 @@
         <v>1.1202999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>-3.8245000000000001E-2</v>
       </c>
@@ -5945,7 +5995,7 @@
         <v>8.2480000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>-3.5306999999999998E-2</v>
       </c>
@@ -6052,7 +6102,7 @@
         <v>6.4060000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>-3.2643999999999999E-2</v>
       </c>
@@ -6159,7 +6209,7 @@
         <v>5.3420000000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>-3.0387000000000001E-2</v>
       </c>
@@ -6266,7 +6316,7 @@
         <v>4.4229999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>-2.8086E-2</v>
       </c>
@@ -6373,7 +6423,7 @@
         <v>3.6129999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>-2.7503E-2</v>
       </c>
@@ -6480,7 +6530,7 @@
         <v>3.395E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>-2.5902000000000001E-2</v>
       </c>
@@ -6587,7 +6637,7 @@
         <v>2.807E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>-2.4580999999999999E-2</v>
       </c>
@@ -6694,7 +6744,7 @@
         <v>2.696E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>-2.3791E-2</v>
       </c>
@@ -6801,7 +6851,7 @@
         <v>2.568E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>-2.2397E-2</v>
       </c>
@@ -6908,7 +6958,7 @@
         <v>2.2620000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>-2.1704000000000001E-2</v>
       </c>
@@ -7015,7 +7065,7 @@
         <v>2.1689999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>-2.1264000000000002E-2</v>
       </c>
@@ -7122,7 +7172,7 @@
         <v>2.0569999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>-2.0229E-2</v>
       </c>
@@ -7229,7 +7279,7 @@
         <v>1.7440000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>-1.9852999999999999E-2</v>
       </c>
@@ -7336,7 +7386,7 @@
         <v>1.7930000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>-1.9129E-2</v>
       </c>
@@ -7443,7 +7493,7 @@
         <v>1.7440000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>-1.8842999999999999E-2</v>
       </c>
@@ -7550,7 +7600,7 @@
         <v>1.593E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>-1.8353000000000001E-2</v>
       </c>
@@ -7657,7 +7707,7 @@
         <v>1.6280000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>-1.8048000000000002E-2</v>
       </c>
@@ -7764,7 +7814,7 @@
         <v>1.495E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>-1.7580999999999999E-2</v>
       </c>
@@ -7871,7 +7921,7 @@
         <v>1.5169999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>-1.7510999999999999E-2</v>
       </c>
@@ -7978,7 +8028,7 @@
         <v>1.4630000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>-1.6955000000000001E-2</v>
       </c>
@@ -8085,7 +8135,7 @@
         <v>1.3550000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>-1.6802000000000001E-2</v>
       </c>
@@ -8192,7 +8242,7 @@
         <v>1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>-1.6802000000000001E-2</v>
       </c>
@@ -8299,7 +8349,7 @@
         <v>1.273E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>-1.6286999999999999E-2</v>
       </c>
@@ -8406,7 +8456,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>-1.6352999999999999E-2</v>
       </c>
@@ -8513,7 +8563,7 @@
         <v>1.346E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>-1.6116999999999999E-2</v>
       </c>
@@ -8620,7 +8670,7 @@
         <v>1.24E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>-1.5691E-2</v>
       </c>
@@ -8727,7 +8777,7 @@
         <v>1.2340000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>-1.54E-2</v>
       </c>
@@ -8834,7 +8884,7 @@
         <v>1.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>-1.5136E-2</v>
       </c>
@@ -8941,7 +8991,7 @@
         <v>1.1100000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>-1.5129E-2</v>
       </c>
@@ -9048,7 +9098,7 @@
         <v>1.17E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>-1.5167E-2</v>
       </c>
@@ -9155,7 +9205,7 @@
         <v>1.186E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>-1.5053E-2</v>
       </c>
@@ -9262,7 +9312,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>-1.4900999999999999E-2</v>
       </c>
@@ -9369,7 +9419,7 @@
         <v>1.1590000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>-1.4801999999999999E-2</v>
       </c>
@@ -9476,7 +9526,7 @@
         <v>1.1709999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>-1.4460000000000001E-2</v>
       </c>
@@ -9583,7 +9633,7 @@
         <v>1.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>-1.4043E-2</v>
       </c>
@@ -9690,7 +9740,7 @@
         <v>1.139E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>-1.3667E-2</v>
       </c>
@@ -9797,7 +9847,7 @@
         <v>1.0480000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>-1.3302E-2</v>
       </c>
@@ -9904,7 +9954,7 @@
         <v>9.9700000000000006E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>-1.2862E-2</v>
       </c>
@@ -10011,7 +10061,7 @@
         <v>9.9700000000000006E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>-1.2541E-2</v>
       </c>
@@ -10118,7 +10168,7 @@
         <v>9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>-1.2167000000000001E-2</v>
       </c>
@@ -10225,7 +10275,7 @@
         <v>8.9899999999999995E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>-1.2049000000000001E-2</v>
       </c>
@@ -10332,7 +10382,7 @@
         <v>8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>-9.9270000000000001E-3</v>
       </c>
@@ -10439,7 +10489,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>-9.9710000000000007E-3</v>
       </c>
@@ -10546,7 +10596,7 @@
         <v>4.3199999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>-9.8399999999999998E-3</v>
       </c>
@@ -10653,7 +10703,7 @@
         <v>4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>-9.9279999999999993E-3</v>
       </c>
@@ -10760,7 +10810,7 @@
         <v>4.46E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>-9.7269999999999995E-3</v>
       </c>
@@ -10867,7 +10917,7 @@
         <v>4.6500000000000003E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>-1.0097999999999999E-2</v>
       </c>
@@ -10974,7 +11024,7 @@
         <v>4.6500000000000003E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>-1.0029E-2</v>
       </c>
@@ -11081,7 +11131,7 @@
         <v>4.35E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>-9.7610000000000006E-3</v>
       </c>
@@ -11188,7 +11238,7 @@
         <v>5.0100000000000003E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>-1.0118E-2</v>
       </c>
@@ -11295,7 +11345,7 @@
         <v>4.9200000000000003E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>-1.0149E-2</v>
       </c>
@@ -11402,7 +11452,7 @@
         <v>5.0500000000000002E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
         <v>-1.0161E-2</v>
       </c>
@@ -11509,7 +11559,7 @@
         <v>5.3600000000000002E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>-1.0201999999999999E-2</v>
       </c>
@@ -11616,7 +11666,7 @@
         <v>5.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
         <v>-1.0271000000000001E-2</v>
       </c>
@@ -11723,7 +11773,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>-1.0283E-2</v>
       </c>
@@ -11830,7 +11880,7 @@
         <v>5.8100000000000003E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
         <v>-1.0408000000000001E-2</v>
       </c>
@@ -11937,7 +11987,7 @@
         <v>5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>-1.0463E-2</v>
       </c>
@@ -12044,7 +12094,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>-1.0567999999999999E-2</v>
       </c>
@@ -12151,7 +12201,7 @@
         <v>6.4300000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
         <v>-1.0727E-2</v>
       </c>
@@ -12258,7 +12308,7 @@
         <v>6.6E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>-1.0881999999999999E-2</v>
       </c>
@@ -12365,7 +12415,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>-1.1030999999999999E-2</v>
       </c>
@@ -12472,7 +12522,7 @@
         <v>6.9899999999999997E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>-1.1117E-2</v>
       </c>
@@ -12579,7 +12629,7 @@
         <v>7.3800000000000005E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>-1.1289E-2</v>
       </c>
@@ -12686,7 +12736,7 @@
         <v>7.6900000000000004E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>-1.1439E-2</v>
       </c>
@@ -12793,7 +12843,7 @@
         <v>8.0800000000000002E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>-1.1580999999999999E-2</v>
       </c>
@@ -12900,7 +12950,7 @@
         <v>7.3899999999999997E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>-1.1611E-2</v>
       </c>
@@ -13007,7 +13057,7 @@
         <v>7.5799999999999999E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>-1.1637E-2</v>
       </c>
@@ -13114,7 +13164,7 @@
         <v>8.3600000000000005E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>-1.1705E-2</v>
       </c>
@@ -13221,7 +13271,7 @@
         <v>7.5699999999999997E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>-1.1710999999999999E-2</v>
       </c>
@@ -13328,7 +13378,7 @@
         <v>7.4799999999999997E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>-1.1854999999999999E-2</v>
       </c>
@@ -13435,7 +13485,7 @@
         <v>6.6699999999999995E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>-1.1847E-2</v>
       </c>
@@ -13542,7 +13592,7 @@
         <v>6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>-1.1925E-2</v>
       </c>
@@ -13649,7 +13699,7 @@
         <v>6.4899999999999995E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>-1.1809999999999999E-2</v>
       </c>
@@ -13756,7 +13806,7 @@
         <v>6.2E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>-1.1774E-2</v>
       </c>
@@ -13863,7 +13913,7 @@
         <v>5.7200000000000003E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
         <v>-1.146E-2</v>
       </c>
@@ -13970,7 +14020,7 @@
         <v>6.1600000000000001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
         <v>-1.1384E-2</v>
       </c>
@@ -14077,7 +14127,7 @@
         <v>5.8900000000000001E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>-1.1407E-2</v>
       </c>
@@ -14184,7 +14234,7 @@
         <v>6.02E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
         <v>-1.1486E-2</v>
       </c>
@@ -14291,7 +14341,7 @@
         <v>6.96E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
         <v>-1.1667E-2</v>
       </c>
@@ -14398,7 +14448,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
         <v>-1.1690000000000001E-2</v>
       </c>
@@ -14505,7 +14555,7 @@
         <v>7.6199999999999998E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
         <v>-1.1853000000000001E-2</v>
       </c>
@@ -14612,7 +14662,7 @@
         <v>7.6300000000000001E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="29">
         <v>-1.1936E-2</v>
       </c>
@@ -14732,12 +14782,12 @@
       <selection sqref="A1:AI85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="29"/>
+    <col min="1" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="29">
         <v>2.9354999999999999E-2</v>
       </c>
@@ -14844,7 +14894,7 @@
         <v>-2.6762999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>2.0181000000000001E-2</v>
       </c>
@@ -14951,7 +15001,7 @@
         <v>-2.3185000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>1.3610000000000001E-2</v>
       </c>
@@ -15058,7 +15108,7 @@
         <v>-2.0456999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>6.0730000000000003E-3</v>
       </c>
@@ -15165,7 +15215,7 @@
         <v>-1.7604999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1.799E-3</v>
       </c>
@@ -15272,7 +15322,7 @@
         <v>-1.6514999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>-1.954E-3</v>
       </c>
@@ -15379,7 +15429,7 @@
         <v>-1.4231000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>-4.1710000000000002E-3</v>
       </c>
@@ -15486,7 +15536,7 @@
         <v>-1.2716E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>-5.1250000000000002E-3</v>
       </c>
@@ -15593,7 +15643,7 @@
         <v>-1.158E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>-7.4269999999999996E-3</v>
       </c>
@@ -15700,7 +15750,7 @@
         <v>-9.979E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>-9.1789999999999997E-3</v>
       </c>
@@ -15807,7 +15857,7 @@
         <v>-9.3259999999999992E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -15914,7 +15964,7 @@
         <v>-8.5450000000000005E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>-1.0501E-2</v>
       </c>
@@ -16021,7 +16071,7 @@
         <v>-7.5709999999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>-1.1297E-2</v>
       </c>
@@ -16128,7 +16178,7 @@
         <v>-7.0060000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>-1.0747E-2</v>
       </c>
@@ -16235,7 +16285,7 @@
         <v>-6.5389999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>-1.1502999999999999E-2</v>
       </c>
@@ -16342,7 +16392,7 @@
         <v>-5.62E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>-1.0966999999999999E-2</v>
       </c>
@@ -16449,7 +16499,7 @@
         <v>-5.176E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>-1.119E-2</v>
       </c>
@@ -16556,7 +16606,7 @@
         <v>-4.725E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>-1.1466E-2</v>
       </c>
@@ -16663,7 +16713,7 @@
         <v>-4.2360000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>-1.0585000000000001E-2</v>
       </c>
@@ -16770,7 +16820,7 @@
         <v>-3.8140000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>-1.1133000000000001E-2</v>
       </c>
@@ -16877,7 +16927,7 @@
         <v>-3.506E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>-1.0623E-2</v>
       </c>
@@ -16984,7 +17034,7 @@
         <v>-3.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>-1.0533000000000001E-2</v>
       </c>
@@ -17091,7 +17141,7 @@
         <v>-2.7569999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>-1.076E-2</v>
       </c>
@@ -17198,7 +17248,7 @@
         <v>-2.3909999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>-1.0044000000000001E-2</v>
       </c>
@@ -17305,7 +17355,7 @@
         <v>-2.3050000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>-9.953E-3</v>
       </c>
@@ -17412,7 +17462,7 @@
         <v>-1.8370000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>-1.0214000000000001E-2</v>
       </c>
@@ -17519,7 +17569,7 @@
         <v>-1.5449999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>-9.2890000000000004E-3</v>
       </c>
@@ -17626,7 +17676,7 @@
         <v>-1.5659999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>-9.1809999999999999E-3</v>
       </c>
@@ -17733,7 +17783,7 @@
         <v>-1.1950000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>-9.0279999999999996E-3</v>
       </c>
@@ -17840,7 +17890,7 @@
         <v>-1.0269999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -17947,7 +17997,7 @@
         <v>-9.2800000000000001E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>-8.8120000000000004E-3</v>
       </c>
@@ -18054,7 +18104,7 @@
         <v>-5.5900000000000004E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>-8.6440000000000006E-3</v>
       </c>
@@ -18161,7 +18211,7 @@
         <v>-6.9300000000000004E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>-8.8079999999999999E-3</v>
       </c>
@@ -18268,7 +18318,7 @@
         <v>-3.7300000000000001E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>-8.6709999999999999E-3</v>
       </c>
@@ -18375,7 +18425,7 @@
         <v>-2.02E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>-9.3310000000000008E-3</v>
       </c>
@@ -18482,7 +18532,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>-9.7630000000000008E-3</v>
       </c>
@@ -18589,7 +18639,7 @@
         <v>-6.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>-9.9319999999999999E-3</v>
       </c>
@@ -18696,7 +18746,7 @@
         <v>1.83E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>-9.9819999999999996E-3</v>
       </c>
@@ -18803,7 +18853,7 @@
         <v>1.7200000000000001E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>-1.0129000000000001E-2</v>
       </c>
@@ -18910,7 +18960,7 @@
         <v>3.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>-9.4249999999999994E-3</v>
       </c>
@@ -19017,7 +19067,7 @@
         <v>4.3800000000000002E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>-8.8649999999999996E-3</v>
       </c>
@@ -19124,7 +19174,7 @@
         <v>5.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>-8.1460000000000005E-3</v>
       </c>
@@ -19231,7 +19281,7 @@
         <v>7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>-7.2769999999999996E-3</v>
       </c>
@@ -19338,7 +19388,7 @@
         <v>7.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>-6.1659999999999996E-3</v>
       </c>
@@ -19445,7 +19495,7 @@
         <v>7.7099999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>-8.2249999999999997E-3</v>
       </c>
@@ -19552,7 +19602,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>-7.0679999999999996E-3</v>
       </c>
@@ -19659,7 +19709,7 @@
         <v>1.3420000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>-6.1050000000000002E-3</v>
       </c>
@@ -19766,7 +19816,7 @@
         <v>1.3389999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>-5.8640000000000003E-3</v>
       </c>
@@ -19873,7 +19923,7 @@
         <v>1.2650000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>-2.6259999999999999E-3</v>
       </c>
@@ -19980,7 +20030,7 @@
         <v>1.6169999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>-6.0169999999999998E-3</v>
       </c>
@@ -20087,7 +20137,7 @@
         <v>1.3240000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>-5.1859999999999996E-3</v>
       </c>
@@ -20194,7 +20244,7 @@
         <v>1.3910000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>-4.7019999999999996E-3</v>
       </c>
@@ -20301,7 +20351,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>-4.7689999999999998E-3</v>
       </c>
@@ -20408,7 +20458,7 @@
         <v>1.454E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>-4.8329999999999996E-3</v>
       </c>
@@ -20515,7 +20565,7 @@
         <v>1.474E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
         <v>-4.8630000000000001E-3</v>
       </c>
@@ -20622,7 +20672,7 @@
         <v>1.475E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>-4.8910000000000004E-3</v>
       </c>
@@ -20729,7 +20779,7 @@
         <v>1.4580000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
         <v>-4.8430000000000001E-3</v>
       </c>
@@ -20836,7 +20886,7 @@
         <v>1.462E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>-4.96E-3</v>
       </c>
@@ -20943,7 +20993,7 @@
         <v>1.451E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
         <v>-4.751E-3</v>
       </c>
@@ -21050,7 +21100,7 @@
         <v>1.439E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>-4.6369999999999996E-3</v>
       </c>
@@ -21157,7 +21207,7 @@
         <v>1.436E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>-4.3160000000000004E-3</v>
       </c>
@@ -21264,7 +21314,7 @@
         <v>1.431E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
         <v>-3.9389999999999998E-3</v>
       </c>
@@ -21371,7 +21421,7 @@
         <v>1.372E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>-3.7030000000000001E-3</v>
       </c>
@@ -21478,7 +21528,7 @@
         <v>1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>-3.6350000000000002E-3</v>
       </c>
@@ -21585,7 +21635,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>-3.6229999999999999E-3</v>
       </c>
@@ -21692,7 +21742,7 @@
         <v>1.2769999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>-3.209E-3</v>
       </c>
@@ -21799,7 +21849,7 @@
         <v>1.274E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>-3.209E-3</v>
       </c>
@@ -21906,7 +21956,7 @@
         <v>1.1980000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>-3.0509999999999999E-3</v>
       </c>
@@ -22013,7 +22063,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>-3.2980000000000002E-3</v>
       </c>
@@ -22120,7 +22170,7 @@
         <v>1.1199999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>-3.411E-3</v>
       </c>
@@ -22227,7 +22277,7 @@
         <v>1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>-3.4299999999999999E-3</v>
       </c>
@@ -22334,7 +22384,7 @@
         <v>9.1600000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>-3.6050000000000001E-3</v>
       </c>
@@ -22441,7 +22491,7 @@
         <v>9.9700000000000006E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>-3.9170000000000003E-3</v>
       </c>
@@ -22548,7 +22598,7 @@
         <v>7.85E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>-3.9680000000000002E-3</v>
       </c>
@@ -22655,7 +22705,7 @@
         <v>7.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>-4.5770000000000003E-3</v>
       </c>
@@ -22762,7 +22812,7 @@
         <v>7.7099999999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>-4.313E-3</v>
       </c>
@@ -22869,7 +22919,7 @@
         <v>4.8899999999999996E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>-4.7060000000000001E-3</v>
       </c>
@@ -22976,7 +23026,7 @@
         <v>5.6400000000000005E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
         <v>-4.4840000000000001E-3</v>
       </c>
@@ -23083,7 +23133,7 @@
         <v>4.8700000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
         <v>-4.3470000000000002E-3</v>
       </c>
@@ -23190,7 +23240,7 @@
         <v>3.1199999999999999E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>-4.3530000000000001E-3</v>
       </c>
@@ -23297,7 +23347,7 @@
         <v>4.75E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
         <v>-4.385E-3</v>
       </c>
@@ -23404,7 +23454,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
         <v>-4.1669999999999997E-3</v>
       </c>
@@ -23511,7 +23561,7 @@
         <v>1.63E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
         <v>-4.2500000000000003E-3</v>
       </c>
@@ -23618,7 +23668,7 @@
         <v>3.5799999999999997E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
         <v>-4.9509999999999997E-3</v>
       </c>
@@ -23725,7 +23775,7 @@
         <v>8.5000000000000006E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="29">
         <v>-1.153E-2</v>
       </c>
@@ -23845,12 +23895,12 @@
       <selection sqref="A1:AK85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="29"/>
+    <col min="1" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="29">
         <v>5.2249999999999996E-3</v>
       </c>
@@ -23963,7 +24013,7 @@
         <v>5.5789999999999998E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>6.0850000000000001E-3</v>
       </c>
@@ -24076,7 +24126,7 @@
         <v>4.2649999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>8.1080000000000006E-3</v>
       </c>
@@ -24189,7 +24239,7 @@
         <v>3.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>1.0200000000000001E-2</v>
       </c>
@@ -24302,7 +24352,7 @@
         <v>2.5460000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1.0664999999999999E-2</v>
       </c>
@@ -24415,7 +24465,7 @@
         <v>1.8580000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1.1719E-2</v>
       </c>
@@ -24528,7 +24578,7 @@
         <v>1.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>1.2276E-2</v>
       </c>
@@ -24641,7 +24691,7 @@
         <v>9.3899999999999995E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>1.3193E-2</v>
       </c>
@@ -24754,7 +24804,7 @@
         <v>1.232E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>1.3707E-2</v>
       </c>
@@ -24867,7 +24917,7 @@
         <v>1.059E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>1.3908999999999999E-2</v>
       </c>
@@ -24980,7 +25030,7 @@
         <v>1.15E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>1.4581999999999999E-2</v>
       </c>
@@ -25093,7 +25143,7 @@
         <v>1.065E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>1.5509999999999999E-2</v>
       </c>
@@ -25206,7 +25256,7 @@
         <v>1.073E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>1.4892000000000001E-2</v>
       </c>
@@ -25319,7 +25369,7 @@
         <v>9.4200000000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>1.6136000000000001E-2</v>
       </c>
@@ -25432,7 +25482,7 @@
         <v>1.0070000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>1.6414000000000002E-2</v>
       </c>
@@ -25545,7 +25595,7 @@
         <v>7.1199999999999996E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>1.6289000000000001E-2</v>
       </c>
@@ -25658,7 +25708,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>1.6747999999999999E-2</v>
       </c>
@@ -25771,7 +25821,7 @@
         <v>6.9700000000000003E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>1.6598000000000002E-2</v>
       </c>
@@ -25884,7 +25934,7 @@
         <v>6.0499999999999996E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>1.6766E-2</v>
       </c>
@@ -25997,7 +26047,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>1.6736000000000001E-2</v>
       </c>
@@ -26110,7 +26160,7 @@
         <v>6.6500000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>1.7139999999999999E-2</v>
       </c>
@@ -26223,7 +26273,7 @@
         <v>6.4000000000000005E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>1.7059000000000001E-2</v>
       </c>
@@ -26336,7 +26386,7 @@
         <v>6.2200000000000005E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>1.7519E-2</v>
       </c>
@@ -26449,7 +26499,7 @@
         <v>6.38E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>1.7611000000000002E-2</v>
       </c>
@@ -26562,7 +26612,7 @@
         <v>5.9699999999999998E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>1.7544000000000001E-2</v>
       </c>
@@ -26675,7 +26725,7 @@
         <v>6.3000000000000003E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>1.7967E-2</v>
       </c>
@@ -26788,7 +26838,7 @@
         <v>7.0600000000000003E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>1.7933999999999999E-2</v>
       </c>
@@ -26901,7 +26951,7 @@
         <v>7.3300000000000004E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>1.8041000000000001E-2</v>
       </c>
@@ -27014,7 +27064,7 @@
         <v>7.1699999999999997E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>1.8200999999999998E-2</v>
       </c>
@@ -27127,7 +27177,7 @@
         <v>8.3600000000000005E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>1.8268E-2</v>
       </c>
@@ -27240,7 +27290,7 @@
         <v>9.01E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>1.8359E-2</v>
       </c>
@@ -27353,7 +27403,7 @@
         <v>9.1100000000000003E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>1.8346000000000001E-2</v>
       </c>
@@ -27466,7 +27516,7 @@
         <v>1.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>1.7979999999999999E-2</v>
       </c>
@@ -27579,7 +27629,7 @@
         <v>1.021E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>1.787E-2</v>
       </c>
@@ -27692,7 +27742,7 @@
         <v>1.194E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>1.7590000000000001E-2</v>
       </c>
@@ -27805,7 +27855,7 @@
         <v>1.212E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>1.7297E-2</v>
       </c>
@@ -27918,7 +27968,7 @@
         <v>1.24E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>1.7245E-2</v>
       </c>
@@ -28031,7 +28081,7 @@
         <v>1.207E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>1.7131E-2</v>
       </c>
@@ -28144,7 +28194,7 @@
         <v>1.088E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>1.6962999999999999E-2</v>
       </c>
@@ -28257,7 +28307,7 @@
         <v>9.3499999999999996E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>1.6709000000000002E-2</v>
       </c>
@@ -28370,7 +28420,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>1.6257000000000001E-2</v>
       </c>
@@ -28483,7 +28533,7 @@
         <v>7.7800000000000005E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>1.5851000000000001E-2</v>
       </c>
@@ -28596,7 +28646,7 @@
         <v>8.0199999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>1.5382E-2</v>
       </c>
@@ -28709,7 +28759,7 @@
         <v>9.1E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>1.4884E-2</v>
       </c>
@@ -28822,7 +28872,7 @@
         <v>9.59E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>1.4597000000000001E-2</v>
       </c>
@@ -28935,7 +28985,7 @@
         <v>1.168E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>1.4309000000000001E-2</v>
       </c>
@@ -29048,7 +29098,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>1.265E-2</v>
       </c>
@@ -29161,7 +29211,7 @@
         <v>1.74E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>1.2508E-2</v>
       </c>
@@ -29274,7 +29324,7 @@
         <v>1.9040000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>1.2574E-2</v>
       </c>
@@ -29387,7 +29437,7 @@
         <v>1.951E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>1.2389000000000001E-2</v>
       </c>
@@ -29500,7 +29550,7 @@
         <v>2.0439999999999998E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>1.2274E-2</v>
       </c>
@@ -29613,7 +29663,7 @@
         <v>2.0219999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>1.2285000000000001E-2</v>
       </c>
@@ -29726,7 +29776,7 @@
         <v>1.9819999999999998E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>1.2321E-2</v>
       </c>
@@ -29839,7 +29889,7 @@
         <v>2.0590000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>1.2326E-2</v>
       </c>
@@ -29952,7 +30002,7 @@
         <v>1.8730000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
         <v>1.2238000000000001E-2</v>
       </c>
@@ -30065,7 +30115,7 @@
         <v>1.7570000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>1.2042000000000001E-2</v>
       </c>
@@ -30178,7 +30228,7 @@
         <v>1.7489999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
         <v>1.1998E-2</v>
       </c>
@@ -30291,7 +30341,7 @@
         <v>1.73E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>1.1847E-2</v>
       </c>
@@ -30404,7 +30454,7 @@
         <v>1.745E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
         <v>1.163E-2</v>
       </c>
@@ -30517,7 +30567,7 @@
         <v>1.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>1.1560000000000001E-2</v>
       </c>
@@ -30630,7 +30680,7 @@
         <v>1.781E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>1.1349E-2</v>
       </c>
@@ -30743,7 +30793,7 @@
         <v>1.696E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
         <v>1.1325E-2</v>
       </c>
@@ -30856,7 +30906,7 @@
         <v>1.8220000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>1.1315E-2</v>
       </c>
@@ -30969,7 +31019,7 @@
         <v>1.8450000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>1.0958000000000001E-2</v>
       </c>
@@ -31082,7 +31132,7 @@
         <v>1.9009999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>1.0664E-2</v>
       </c>
@@ -31195,7 +31245,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>1.0629E-2</v>
       </c>
@@ -31308,7 +31358,7 @@
         <v>1.9120000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>1.0541999999999999E-2</v>
       </c>
@@ -31421,7 +31471,7 @@
         <v>1.8569999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>1.06E-2</v>
       </c>
@@ -31534,7 +31584,7 @@
         <v>1.854E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>1.0552000000000001E-2</v>
       </c>
@@ -31647,7 +31697,7 @@
         <v>1.7240000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>1.0603E-2</v>
       </c>
@@ -31760,7 +31810,7 @@
         <v>1.704E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>1.077E-2</v>
       </c>
@@ -31873,7 +31923,7 @@
         <v>1.549E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>1.0874999999999999E-2</v>
       </c>
@@ -31986,7 +32036,7 @@
         <v>1.488E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>1.0828000000000001E-2</v>
       </c>
@@ -32099,7 +32149,7 @@
         <v>1.3129999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>1.094E-2</v>
       </c>
@@ -32212,7 +32262,7 @@
         <v>1.1770000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>1.0754E-2</v>
       </c>
@@ -32325,7 +32375,7 @@
         <v>1.0950000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>1.0729000000000001E-2</v>
       </c>
@@ -32438,7 +32488,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>1.0742E-2</v>
       </c>
@@ -32551,7 +32601,7 @@
         <v>7.9199999999999995E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
         <v>1.0619E-2</v>
       </c>
@@ -32664,7 +32714,7 @@
         <v>7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
         <v>1.0485E-2</v>
       </c>
@@ -32777,7 +32827,7 @@
         <v>6.7500000000000004E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>1.0219000000000001E-2</v>
       </c>
@@ -32890,7 +32940,7 @@
         <v>6.7100000000000005E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
         <v>9.7350000000000006E-3</v>
       </c>
@@ -33003,7 +33053,7 @@
         <v>6.6500000000000001E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
         <v>9.3170000000000006E-3</v>
       </c>
@@ -33116,7 +33166,7 @@
         <v>6.4899999999999995E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
         <v>8.9510000000000006E-3</v>
       </c>
@@ -33229,7 +33279,7 @@
         <v>8.1400000000000005E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
         <v>8.3739999999999995E-3</v>
       </c>
@@ -33342,7 +33392,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="29">
         <v>8.3409999999999995E-3</v>
       </c>
@@ -33468,12 +33518,12 @@
       <selection sqref="A1:AK85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="29"/>
+    <col min="1" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="29">
         <v>9.4631999999999994E-2</v>
       </c>
@@ -33586,7 +33636,7 @@
         <v>-2.8112999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>8.2121E-2</v>
       </c>
@@ -33699,7 +33749,7 @@
         <v>-2.5090000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>7.0622000000000004E-2</v>
       </c>
@@ -33812,7 +33862,7 @@
         <v>-2.1267000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>6.3015000000000002E-2</v>
       </c>
@@ -33925,7 +33975,7 @@
         <v>-1.9421000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>5.6050000000000003E-2</v>
       </c>
@@ -34038,7 +34088,7 @@
         <v>-1.7565000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>4.9064999999999998E-2</v>
       </c>
@@ -34151,7 +34201,7 @@
         <v>-1.5409000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>4.4884E-2</v>
       </c>
@@ -34264,7 +34314,7 @@
         <v>-1.4345999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>3.9240999999999998E-2</v>
       </c>
@@ -34377,7 +34427,7 @@
         <v>-1.2799E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>3.6747000000000002E-2</v>
       </c>
@@ -34490,7 +34540,7 @@
         <v>-1.0972000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>3.3436E-2</v>
       </c>
@@ -34603,7 +34653,7 @@
         <v>-1.0721E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>3.0672999999999999E-2</v>
       </c>
@@ -34716,7 +34766,7 @@
         <v>-9.4059999999999994E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>2.8525999999999999E-2</v>
       </c>
@@ -34829,7 +34879,7 @@
         <v>-8.6580000000000008E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>2.6491000000000001E-2</v>
       </c>
@@ -34942,7 +34992,7 @@
         <v>-8.1099999999999992E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>2.4804E-2</v>
       </c>
@@ -35055,7 +35105,7 @@
         <v>-7.1190000000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2.3848999999999999E-2</v>
       </c>
@@ -35168,7 +35218,7 @@
         <v>-7.0930000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>2.2301000000000001E-2</v>
       </c>
@@ -35281,7 +35331,7 @@
         <v>-6.2509999999999996E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>2.1465000000000001E-2</v>
       </c>
@@ -35394,7 +35444,7 @@
         <v>-5.7959999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>2.0707E-2</v>
       </c>
@@ -35507,7 +35557,7 @@
         <v>-6.1349999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>2.0566000000000001E-2</v>
       </c>
@@ -35620,7 +35670,7 @@
         <v>-5.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>2.0181000000000001E-2</v>
       </c>
@@ -35733,7 +35783,7 @@
         <v>-5.032E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>1.9125E-2</v>
       </c>
@@ -35846,7 +35896,7 @@
         <v>-5.2249999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>1.8966E-2</v>
       </c>
@@ -35959,7 +36009,7 @@
         <v>-4.4039999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>1.8391000000000001E-2</v>
       </c>
@@ -36072,7 +36122,7 @@
         <v>-4.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>1.7856E-2</v>
       </c>
@@ -36185,7 +36235,7 @@
         <v>-4.0280000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>1.7897E-2</v>
       </c>
@@ -36298,7 +36348,7 @@
         <v>-3.588E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>1.7319000000000001E-2</v>
       </c>
@@ -36411,7 +36461,7 @@
         <v>-3.4770000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>1.7294E-2</v>
       </c>
@@ -36524,7 +36574,7 @@
         <v>-3.1489999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>1.7198000000000001E-2</v>
       </c>
@@ -36637,7 +36687,7 @@
         <v>-2.7550000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>1.6764999999999999E-2</v>
       </c>
@@ -36750,7 +36800,7 @@
         <v>-2.653E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>1.6639000000000001E-2</v>
       </c>
@@ -36863,7 +36913,7 @@
         <v>-2.3830000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>1.6688999999999999E-2</v>
       </c>
@@ -36976,7 +37026,7 @@
         <v>-1.946E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>1.6116999999999999E-2</v>
       </c>
@@ -37089,7 +37139,7 @@
         <v>-1.9680000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>1.6712999999999999E-2</v>
       </c>
@@ -37202,7 +37252,7 @@
         <v>-1.6540000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>1.6256E-2</v>
       </c>
@@ -37315,7 +37365,7 @@
         <v>-1.4369999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>1.6230000000000001E-2</v>
       </c>
@@ -37428,7 +37478,7 @@
         <v>-1.4040000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>1.6812000000000001E-2</v>
       </c>
@@ -37541,7 +37591,7 @@
         <v>-1.1709999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>1.6049999999999998E-2</v>
       </c>
@@ -37654,7 +37704,7 @@
         <v>-1.2700000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>1.6053999999999999E-2</v>
       </c>
@@ -37767,7 +37817,7 @@
         <v>-1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>1.5806000000000001E-2</v>
       </c>
@@ -37880,7 +37930,7 @@
         <v>-1.446E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>1.523E-2</v>
       </c>
@@ -37993,7 +38043,7 @@
         <v>-1.8779999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>1.5692000000000001E-2</v>
       </c>
@@ -38106,7 +38156,7 @@
         <v>-2.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>1.5288E-2</v>
       </c>
@@ -38219,7 +38269,7 @@
         <v>-2.6220000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>1.5237000000000001E-2</v>
       </c>
@@ -38332,7 +38382,7 @@
         <v>-3.1480000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>1.5751000000000001E-2</v>
       </c>
@@ -38445,7 +38495,7 @@
         <v>-3.4659999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>1.5330999999999999E-2</v>
       </c>
@@ -38558,7 +38608,7 @@
         <v>-3.81E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>1.5448E-2</v>
       </c>
@@ -38671,7 +38721,7 @@
         <v>-4.1240000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>1.8131999999999999E-2</v>
       </c>
@@ -38784,7 +38834,7 @@
         <v>-5.0379999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>1.7770999999999999E-2</v>
       </c>
@@ -38897,7 +38947,7 @@
         <v>-4.862E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>1.7520000000000001E-2</v>
       </c>
@@ -39010,7 +39060,7 @@
         <v>-4.7520000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>1.6896000000000001E-2</v>
       </c>
@@ -39123,7 +39173,7 @@
         <v>-4.6360000000000004E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>1.6618000000000001E-2</v>
       </c>
@@ -39236,7 +39286,7 @@
         <v>-4.4339999999999996E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>1.6213000000000002E-2</v>
       </c>
@@ -39349,7 +39399,7 @@
         <v>-4.274E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>1.5809E-2</v>
       </c>
@@ -39462,7 +39512,7 @@
         <v>-4.2079999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>1.5398999999999999E-2</v>
       </c>
@@ -39575,7 +39625,7 @@
         <v>-4.0359999999999997E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
         <v>1.504E-2</v>
       </c>
@@ -39688,7 +39738,7 @@
         <v>-3.9220000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>1.4821000000000001E-2</v>
       </c>
@@ -39801,7 +39851,7 @@
         <v>-3.8E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
         <v>1.4487999999999999E-2</v>
       </c>
@@ -39914,7 +39964,7 @@
         <v>-3.7009999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>1.4298E-2</v>
       </c>
@@ -40027,7 +40077,7 @@
         <v>-3.5330000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
         <v>1.4007E-2</v>
       </c>
@@ -40140,7 +40190,7 @@
         <v>-3.421E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>1.3653999999999999E-2</v>
       </c>
@@ -40253,7 +40303,7 @@
         <v>-3.3E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>1.3573E-2</v>
       </c>
@@ -40366,7 +40416,7 @@
         <v>-3.1519999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
         <v>1.3131E-2</v>
       </c>
@@ -40479,7 +40529,7 @@
         <v>-2.9989999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>1.2966999999999999E-2</v>
       </c>
@@ -40592,7 +40642,7 @@
         <v>-2.872E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>1.2997E-2</v>
       </c>
@@ -40705,7 +40755,7 @@
         <v>-2.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>1.2674E-2</v>
       </c>
@@ -40818,7 +40868,7 @@
         <v>-2.6670000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>1.2593E-2</v>
       </c>
@@ -40931,7 +40981,7 @@
         <v>-2.5409999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>1.2147E-2</v>
       </c>
@@ -41044,7 +41094,7 @@
         <v>-2.3770000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>1.18E-2</v>
       </c>
@@ -41157,7 +41207,7 @@
         <v>-2.2049999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>1.1908E-2</v>
       </c>
@@ -41270,7 +41320,7 @@
         <v>-2.0690000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>1.1483999999999999E-2</v>
       </c>
@@ -41383,7 +41433,7 @@
         <v>-1.954E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>1.1542999999999999E-2</v>
       </c>
@@ -41496,7 +41546,7 @@
         <v>-1.9070000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>1.1856999999999999E-2</v>
       </c>
@@ -41609,7 +41659,7 @@
         <v>-1.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>1.1303000000000001E-2</v>
       </c>
@@ -41722,7 +41772,7 @@
         <v>-1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>1.1775000000000001E-2</v>
       </c>
@@ -41835,7 +41885,7 @@
         <v>-1.766E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>1.1825E-2</v>
       </c>
@@ -41948,7 +41998,7 @@
         <v>-1.683E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>1.1415E-2</v>
       </c>
@@ -42061,7 +42111,7 @@
         <v>-1.892E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>1.2305999999999999E-2</v>
       </c>
@@ -42174,7 +42224,7 @@
         <v>-1.9289999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
         <v>1.1722E-2</v>
       </c>
@@ -42287,7 +42337,7 @@
         <v>-2.0370000000000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
         <v>1.1971000000000001E-2</v>
       </c>
@@ -42400,7 +42450,7 @@
         <v>-2.117E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>1.2492E-2</v>
       </c>
@@ -42513,7 +42563,7 @@
         <v>-2.2880000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
         <v>1.1572000000000001E-2</v>
       </c>
@@ -42626,7 +42676,7 @@
         <v>-2.4060000000000002E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
         <v>1.2116E-2</v>
       </c>
@@ -42739,7 +42789,7 @@
         <v>-2.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
         <v>1.1946999999999999E-2</v>
       </c>
@@ -42852,7 +42902,7 @@
         <v>-2.63E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
         <v>1.1309E-2</v>
       </c>
@@ -42965,7 +43015,7 @@
         <v>-2.679E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="29">
         <v>1.2137999999999999E-2</v>
       </c>
